--- a/Synoptic/Template_GHG_Key.xlsx
+++ b/Synoptic/Template_GHG_Key.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla López Lloreda\Dropbox\Grad school\Research\Delmarva project\Data\Synoptic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A0F87FF-0FEA-4733-B7EE-0705D183988A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC1F1D-34F7-49C1-BBE4-55BBB72698B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F038E0C-33BA-477A-BCDB-AAA57BAAF801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,16 +57,16 @@
     <t>GC_Notes</t>
   </si>
   <si>
-    <t>Water_Temp_DegC</t>
-  </si>
-  <si>
-    <t>Ambient_air</t>
-  </si>
-  <si>
     <t>Flag</t>
   </si>
   <si>
     <t>Flag_notes</t>
+  </si>
+  <si>
+    <t>Air_Location</t>
+  </si>
+  <si>
+    <t>Water_Temp_C</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,6 +439,7 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -464,16 +465,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Synoptic/Template_GHG_Key.xlsx
+++ b/Synoptic/Template_GHG_Key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla López Lloreda\Dropbox\Grad school\Research\Delmarva project\Data\Synoptic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC1F1D-34F7-49C1-BBE4-55BBB72698B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C135F35D-E7C0-4819-B231-0E3280740809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F038E0C-33BA-477A-BCDB-AAA57BAAF801}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Site_ID</t>
   </si>
@@ -66,7 +66,10 @@
     <t>Air_Location</t>
   </si>
   <si>
-    <t>Water_Temp_C</t>
+    <t>This HAS to be consistent</t>
+  </si>
+  <si>
+    <t>WaterT_C</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317EC1E6-F2DF-4FDC-B4A4-F2DD6D1FDC81}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +442,7 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -465,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -475,6 +478,11 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Synoptic/Template_GHG_Key.xlsx
+++ b/Synoptic/Template_GHG_Key.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla López Lloreda\Dropbox\Grad school\Research\Delmarva project\Data\Synoptic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla López Lloreda\Dropbox\Grad school\Research\Delmarva project\Projects\Synoptic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C135F35D-E7C0-4819-B231-0E3280740809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E48E6C-1A64-4DE7-BA86-1E08AAE19EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F038E0C-33BA-477A-BCDB-AAA57BAAF801}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Site_ID</t>
   </si>
@@ -66,10 +66,16 @@
     <t>Air_Location</t>
   </si>
   <si>
-    <t>This HAS to be consistent</t>
-  </si>
-  <si>
     <t>WaterT_C</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>These names should be consistent</t>
+  </si>
+  <si>
+    <t>Change Air_Location to Ambient_air?</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317EC1E6-F2DF-4FDC-B4A4-F2DD6D1FDC81}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,9 +449,11 @@
     <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,21 +476,29 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
